--- a/Code/Results/Cases/Case_8_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_54/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7667370467290198</v>
+        <v>0.7613980521331882</v>
       </c>
       <c r="C2">
-        <v>0.1665744316543822</v>
+        <v>0.1892063832479636</v>
       </c>
       <c r="D2">
-        <v>0.07402665983159551</v>
+        <v>0.07521137018573398</v>
       </c>
       <c r="E2">
-        <v>0.3599349849668485</v>
+        <v>0.3647425784379124</v>
       </c>
       <c r="F2">
-        <v>0.5409322614130971</v>
+        <v>0.4822389690024096</v>
       </c>
       <c r="G2">
-        <v>0.0008133507390115002</v>
+        <v>0.006935927441315159</v>
       </c>
       <c r="H2">
-        <v>4.300347626329248E-05</v>
+        <v>2.487708885556827E-06</v>
       </c>
       <c r="I2">
-        <v>0.001174005570547365</v>
+        <v>0.0005996746132730379</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3542612976968549</v>
+        <v>0.3007789484950223</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1563865922158421</v>
       </c>
       <c r="M2">
-        <v>0.8791347548998374</v>
+        <v>0.07749789641724902</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.5782899292571884</v>
+        <v>0.9129407084278398</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.664343749828816</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.5854229006477922</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.448128450913757</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6697835120479851</v>
+        <v>0.6688260738208101</v>
       </c>
       <c r="C3">
-        <v>0.148579412612321</v>
+        <v>0.1662793912487075</v>
       </c>
       <c r="D3">
-        <v>0.06711538316832133</v>
+        <v>0.06705796429729816</v>
       </c>
       <c r="E3">
-        <v>0.3158568713031968</v>
+        <v>0.321804824570755</v>
       </c>
       <c r="F3">
-        <v>0.5154368793074937</v>
+        <v>0.4599404872588693</v>
       </c>
       <c r="G3">
-        <v>0.0008161470968652957</v>
+        <v>0.009227388694216854</v>
       </c>
       <c r="H3">
-        <v>0.0003837353703390889</v>
+        <v>0.0001110337880596557</v>
       </c>
       <c r="I3">
-        <v>0.001940230993809688</v>
+        <v>0.0008186556724840699</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3535429144120776</v>
+        <v>0.3018281603407935</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1608706019741177</v>
       </c>
       <c r="M3">
-        <v>0.7708326724200845</v>
+        <v>0.07518850348781569</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.5033782685994908</v>
+        <v>0.8012748570209141</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.622317582129028</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.509481513314519</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.413651614171684</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6100116369851207</v>
+        <v>0.6116471913263695</v>
       </c>
       <c r="C4">
-        <v>0.1376665364047227</v>
+        <v>0.1524302941008528</v>
       </c>
       <c r="D4">
-        <v>0.06287180019271688</v>
+        <v>0.06206938777293658</v>
       </c>
       <c r="E4">
-        <v>0.2887717665891927</v>
+        <v>0.2953966098747571</v>
       </c>
       <c r="F4">
-        <v>0.5001875263028808</v>
+        <v>0.4464341146385493</v>
       </c>
       <c r="G4">
-        <v>0.0008179245694461341</v>
+        <v>0.01085213498923104</v>
       </c>
       <c r="H4">
-        <v>0.0007774817458205963</v>
+        <v>0.0003331572318738818</v>
       </c>
       <c r="I4">
-        <v>0.00260393275437254</v>
+        <v>0.001089573528406884</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3532761532407314</v>
+        <v>0.3025207563095762</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1636901282017611</v>
       </c>
       <c r="M4">
-        <v>0.7043314389162134</v>
+        <v>0.07424688117214373</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.457423026075503</v>
+        <v>0.7327135582441144</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.59766312778055</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.4628788667545223</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.392915195406445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5852879296700166</v>
+        <v>0.5879693036891354</v>
       </c>
       <c r="C5">
-        <v>0.1336183313887886</v>
+        <v>0.1472283240500616</v>
       </c>
       <c r="D5">
-        <v>0.06121199655056841</v>
+        <v>0.06011144180904182</v>
       </c>
       <c r="E5">
-        <v>0.2776751925964973</v>
+        <v>0.2845723432328384</v>
       </c>
       <c r="F5">
-        <v>0.4934879678665141</v>
+        <v>0.4404327221058537</v>
       </c>
       <c r="G5">
-        <v>0.0008186691529181738</v>
+        <v>0.01157161499166343</v>
       </c>
       <c r="H5">
-        <v>0.000982726284719293</v>
+        <v>0.0004612325162556274</v>
       </c>
       <c r="I5">
-        <v>0.002995372580803402</v>
+        <v>0.00131648832192699</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3527520939124074</v>
+        <v>0.3024095831381075</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1646510376444716</v>
       </c>
       <c r="M5">
-        <v>0.6775365844067807</v>
+        <v>0.07388208945608277</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.4387748950143688</v>
+        <v>0.7050747515210958</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.585984708676946</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.4439618933548246</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.382815527246876</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5808077528927811</v>
+        <v>0.5836764802090499</v>
       </c>
       <c r="C6">
-        <v>0.1333997217111147</v>
+        <v>0.1468437383356331</v>
       </c>
       <c r="D6">
-        <v>0.06102223694724529</v>
+        <v>0.05987372667799207</v>
       </c>
       <c r="E6">
-        <v>0.2757700555696729</v>
+        <v>0.2827142951595434</v>
       </c>
       <c r="F6">
-        <v>0.4916702520316463</v>
+        <v>0.4387787335609232</v>
       </c>
       <c r="G6">
-        <v>0.0008187996324173836</v>
+        <v>0.01170018379532395</v>
       </c>
       <c r="H6">
-        <v>0.001020242678077654</v>
+        <v>0.0004851936657317424</v>
       </c>
       <c r="I6">
-        <v>0.003161574539251255</v>
+        <v>0.001467305146937825</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3521092337309675</v>
+        <v>0.3018984605438604</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1645626670337421</v>
       </c>
       <c r="M6">
-        <v>0.6734685623229666</v>
+        <v>0.07370557154583324</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.4357685732520764</v>
+        <v>0.7008576842538474</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.581732485671409</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.4409082578299106</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.379008469364933</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6086619035228011</v>
+        <v>0.6107673079831102</v>
       </c>
       <c r="C7">
-        <v>0.1388480206821754</v>
+        <v>0.1529458757278235</v>
       </c>
       <c r="D7">
-        <v>0.06308497455194839</v>
+        <v>0.0627213793862893</v>
       </c>
       <c r="E7">
-        <v>0.288452726716848</v>
+        <v>0.2951021528086031</v>
       </c>
       <c r="F7">
-        <v>0.4981554764869216</v>
+        <v>0.4413332566372787</v>
       </c>
       <c r="G7">
-        <v>0.000817950372202807</v>
+        <v>0.01121361473758831</v>
       </c>
       <c r="H7">
-        <v>0.0007819995565863103</v>
+        <v>0.0003379867848725127</v>
       </c>
       <c r="I7">
-        <v>0.002861908626961451</v>
+        <v>0.001383389297629378</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3517456599691222</v>
+        <v>0.2995250847104707</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.162235902385266</v>
       </c>
       <c r="M7">
-        <v>0.7050162829780078</v>
+        <v>0.07345175108576463</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.4574177565180975</v>
+        <v>0.7327003916122692</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.591147889052962</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.4627220607281473</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.376590013685046</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7319972576996747</v>
+        <v>0.7296448186855855</v>
       </c>
       <c r="C8">
-        <v>0.1619913388546195</v>
+        <v>0.1805760673071433</v>
       </c>
       <c r="D8">
-        <v>0.07195967554667959</v>
+        <v>0.0742182036096537</v>
       </c>
       <c r="E8">
-        <v>0.3445139991272796</v>
+        <v>0.3497870246184007</v>
       </c>
       <c r="F8">
-        <v>0.5294897340316425</v>
+        <v>0.461561782168296</v>
       </c>
       <c r="G8">
-        <v>0.0008143220916273508</v>
+        <v>0.009499776214789257</v>
       </c>
       <c r="H8">
-        <v>0.0001217388141037112</v>
+        <v>7.628494033795619E-06</v>
       </c>
       <c r="I8">
-        <v>0.001698954190202606</v>
+        <v>0.0009989894029693858</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.351973845647013</v>
+        <v>0.2940595544413718</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1547495112244874</v>
       </c>
       <c r="M8">
-        <v>0.8431883942178047</v>
+        <v>0.07444272019341014</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.552776794256971</v>
+        <v>0.873584805914021</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.641229198961241</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.5590704285843273</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.39465541288962</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9739034762115466</v>
+        <v>0.9603805327606665</v>
       </c>
       <c r="C9">
-        <v>0.206368392163057</v>
+        <v>0.2369242547686525</v>
       </c>
       <c r="D9">
-        <v>0.0889584984450309</v>
+        <v>0.09488250118103281</v>
       </c>
       <c r="E9">
-        <v>0.4547466486392509</v>
+        <v>0.4570378388778096</v>
       </c>
       <c r="F9">
-        <v>0.5978841181650267</v>
+        <v>0.5176794996112832</v>
       </c>
       <c r="G9">
-        <v>0.0008076521641372514</v>
+        <v>0.005273611684503798</v>
       </c>
       <c r="H9">
-        <v>0.000397845795149232</v>
+        <v>0.0006745750488594826</v>
       </c>
       <c r="I9">
-        <v>0.0006734149001372813</v>
+        <v>0.0009395254819395404</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3565917638338227</v>
+        <v>0.29205055730921</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1445605837321438</v>
       </c>
       <c r="M9">
-        <v>1.112512293350875</v>
+        <v>0.08246195889429231</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.7398879940180336</v>
+        <v>1.150617591165144</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.760570792415109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.7484805798294829</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.481504309071056</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.156448804102524</v>
+        <v>1.137148233528194</v>
       </c>
       <c r="C10">
-        <v>0.2406405781666621</v>
+        <v>0.2753638364341242</v>
       </c>
       <c r="D10">
-        <v>0.1029338550825258</v>
+        <v>0.1144833616998966</v>
       </c>
       <c r="E10">
-        <v>0.5021534316965415</v>
+        <v>0.5023955896167109</v>
       </c>
       <c r="F10">
-        <v>0.6399273606296276</v>
+        <v>0.5330994987033151</v>
       </c>
       <c r="G10">
-        <v>0.0008031251158308107</v>
+        <v>0.0109423124703838</v>
       </c>
       <c r="H10">
-        <v>0.001740391829386123</v>
+        <v>0.002089438654164333</v>
       </c>
       <c r="I10">
-        <v>0.001176085855239428</v>
+        <v>0.001801042647920248</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.3545383646736688</v>
+        <v>0.277478233469342</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1327249668029751</v>
       </c>
       <c r="M10">
-        <v>1.317045711928699</v>
+        <v>0.08524898974442507</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.8484172312711067</v>
+        <v>1.356235244592028</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.820666645075846</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.8573376993027608</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.463253661281584</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.293861526126932</v>
+        <v>1.280866939162763</v>
       </c>
       <c r="C11">
-        <v>0.2593479350102257</v>
+        <v>0.2827671601960446</v>
       </c>
       <c r="D11">
-        <v>0.1219827495198302</v>
+        <v>0.1418686065823778</v>
       </c>
       <c r="E11">
-        <v>0.2751374252642336</v>
+        <v>0.2759681345621061</v>
       </c>
       <c r="F11">
-        <v>0.5741084349255061</v>
+        <v>0.4424925604762961</v>
       </c>
       <c r="G11">
-        <v>0.0008018637834032686</v>
+        <v>0.04482345587209124</v>
       </c>
       <c r="H11">
-        <v>0.01986997985532213</v>
+        <v>0.02009998719522699</v>
       </c>
       <c r="I11">
-        <v>0.001919410325415427</v>
+        <v>0.002643180165529557</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.3049072122233198</v>
+        <v>0.2245596733298107</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1122730033304222</v>
       </c>
       <c r="M11">
-        <v>1.462037385211971</v>
+        <v>0.06713281991115139</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.6569721445878187</v>
+        <v>1.490686154449776</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.578159888023407</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.6623216461255552</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.158801508274294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.376043970969846</v>
+        <v>1.368439761353585</v>
       </c>
       <c r="C12">
-        <v>0.2660259108317149</v>
+        <v>0.2814391863938823</v>
       </c>
       <c r="D12">
-        <v>0.1358015525636063</v>
+        <v>0.1600742983672916</v>
       </c>
       <c r="E12">
-        <v>0.1335523548395336</v>
+        <v>0.1348964551495691</v>
       </c>
       <c r="F12">
-        <v>0.5150116776334741</v>
+        <v>0.3808088431622352</v>
       </c>
       <c r="G12">
-        <v>0.0008016131601547684</v>
+        <v>0.06928881383910124</v>
       </c>
       <c r="H12">
-        <v>0.05817531452494507</v>
+        <v>0.05835048775143292</v>
       </c>
       <c r="I12">
-        <v>0.001975824466388332</v>
+        <v>0.002688251240641648</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.269133815984663</v>
+        <v>0.1948292773554954</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1020469141775591</v>
       </c>
       <c r="M12">
-        <v>1.542114339408045</v>
+        <v>0.05550499372140827</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.4948937595454836</v>
+        <v>1.563666891556068</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.383229169425931</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.4981718203391381</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.9700020131511593</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.41800962721797</v>
+        <v>1.413869641120272</v>
       </c>
       <c r="C13">
-        <v>0.2657365480872187</v>
+        <v>0.2772931854008789</v>
       </c>
       <c r="D13">
-        <v>0.1466018170888788</v>
+        <v>0.1701411062298916</v>
       </c>
       <c r="E13">
-        <v>0.04879287676926047</v>
+        <v>0.05060647437982801</v>
       </c>
       <c r="F13">
-        <v>0.4545222453271691</v>
+        <v>0.3379786542829422</v>
       </c>
       <c r="G13">
-        <v>0.000802146489855082</v>
+        <v>0.06353351224245429</v>
       </c>
       <c r="H13">
-        <v>0.1135778371875205</v>
+        <v>0.1137254209712211</v>
       </c>
       <c r="I13">
-        <v>0.00183354802342528</v>
+        <v>0.002538266954505985</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.2393878653163171</v>
+        <v>0.1783432261567057</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.09704872300449985</v>
       </c>
       <c r="M13">
-        <v>1.577707343645585</v>
+        <v>0.04792753720584386</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.3472552199159438</v>
+        <v>1.596385324043951</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.20314745172152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3494286866310787</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.852704497290631</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.428782827380701</v>
+        <v>1.426158563621271</v>
       </c>
       <c r="C14">
-        <v>0.2628091406910187</v>
+        <v>0.2734437821494993</v>
       </c>
       <c r="D14">
-        <v>0.152924313771976</v>
+        <v>0.173425039003277</v>
       </c>
       <c r="E14">
-        <v>0.02310272042991546</v>
+        <v>0.0252515203040331</v>
       </c>
       <c r="F14">
-        <v>0.4116989362960339</v>
+        <v>0.314704814539688</v>
       </c>
       <c r="G14">
-        <v>0.0008028687539081376</v>
+        <v>0.0469589152854617</v>
       </c>
       <c r="H14">
-        <v>0.16271626419406</v>
+        <v>0.1628480616066668</v>
       </c>
       <c r="I14">
-        <v>0.001737709707609447</v>
+        <v>0.002444413868537332</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.2215037042966461</v>
+        <v>0.1714427336551338</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.0952238192280257</v>
       </c>
       <c r="M14">
-        <v>1.582797203323793</v>
+        <v>0.04414053430494569</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.2544339677473531</v>
+        <v>1.601324146527105</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.084828129790537</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2561221629368085</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.7959171593024195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.421831998323512</v>
+        <v>1.419197685505026</v>
       </c>
       <c r="C15">
-        <v>0.2611293646025672</v>
+        <v>0.2722992051264583</v>
       </c>
       <c r="D15">
-        <v>0.1537827967167544</v>
+        <v>0.1724816400480762</v>
       </c>
       <c r="E15">
-        <v>0.02122944898449378</v>
+        <v>0.02351666232227639</v>
       </c>
       <c r="F15">
-        <v>0.4001552046280494</v>
+        <v>0.3110843029385677</v>
       </c>
       <c r="G15">
-        <v>0.0008032320702769965</v>
+        <v>0.03857090160182963</v>
       </c>
       <c r="H15">
-        <v>0.1751533877646096</v>
+        <v>0.175279347530136</v>
       </c>
       <c r="I15">
-        <v>0.00178998145099829</v>
+        <v>0.00251271619583715</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.2176686306887596</v>
+        <v>0.1711620789783499</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.09529338048129965</v>
       </c>
       <c r="M15">
-        <v>1.574575765209403</v>
+        <v>0.04361859784355282</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.2322604782678859</v>
+        <v>1.593894665925433</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.056008361112887</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2339066364240772</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.7899892777054305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.332112358768455</v>
+        <v>1.326591890132818</v>
       </c>
       <c r="C16">
-        <v>0.2470621083809732</v>
+        <v>0.2643179918813132</v>
       </c>
       <c r="D16">
-        <v>0.1452775399140194</v>
+        <v>0.155517677726408</v>
       </c>
       <c r="E16">
-        <v>0.02101479065538639</v>
+        <v>0.02392539985733916</v>
       </c>
       <c r="F16">
-        <v>0.3936156984519528</v>
+        <v>0.3317485966395424</v>
       </c>
       <c r="G16">
-        <v>0.0008050552555602935</v>
+        <v>0.01062506201262892</v>
       </c>
       <c r="H16">
-        <v>0.162113127702483</v>
+        <v>0.162200236075094</v>
       </c>
       <c r="I16">
-        <v>0.001651325639016044</v>
+        <v>0.002318629229820068</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2236073923389572</v>
+        <v>0.1852709994169288</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.100828706798672</v>
       </c>
       <c r="M16">
-        <v>1.478091916335813</v>
+        <v>0.04747871230491896</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.2207361082574728</v>
+        <v>1.504294792027139</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.063722705124761</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2230036743750112</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.8681314709742622</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.257785552975776</v>
+        <v>1.250196761502849</v>
       </c>
       <c r="C17">
-        <v>0.237914770630212</v>
+        <v>0.2591190281980431</v>
       </c>
       <c r="D17">
-        <v>0.1354087646830635</v>
+        <v>0.1422108188914706</v>
       </c>
       <c r="E17">
-        <v>0.02876896062272483</v>
+        <v>0.03193053643651833</v>
       </c>
       <c r="F17">
-        <v>0.4110728535924082</v>
+        <v>0.3579528681374455</v>
       </c>
       <c r="G17">
-        <v>0.0008060814202814389</v>
+        <v>0.004860468100518212</v>
       </c>
       <c r="H17">
-        <v>0.1241924035737725</v>
+        <v>0.1242539291746425</v>
       </c>
       <c r="I17">
-        <v>0.001645790603700625</v>
+        <v>0.002254747025568271</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2373826892808601</v>
+        <v>0.2000544673165194</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1066713895025657</v>
       </c>
       <c r="M17">
-        <v>1.401700471847988</v>
+        <v>0.05213889712054609</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.2583158670443062</v>
+        <v>1.431996429013395</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.131270139894184</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2613483154980329</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.9557355933014691</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.190233604405421</v>
+        <v>1.179926950168465</v>
       </c>
       <c r="C18">
-        <v>0.2308592008305368</v>
+        <v>0.2562099932458182</v>
       </c>
       <c r="D18">
-        <v>0.1234191765762205</v>
+        <v>0.1290913424502236</v>
       </c>
       <c r="E18">
-        <v>0.07314477431732769</v>
+        <v>0.07620052305209768</v>
       </c>
       <c r="F18">
-        <v>0.4537814138520559</v>
+        <v>0.3994655642136351</v>
       </c>
       <c r="G18">
-        <v>0.0008064655715297466</v>
+        <v>0.003558177256300254</v>
       </c>
       <c r="H18">
-        <v>0.07135489190999067</v>
+        <v>0.07143656800789699</v>
       </c>
       <c r="I18">
-        <v>0.00141535986508412</v>
+        <v>0.001950385927657727</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.2620189158214927</v>
+        <v>0.2208474914233332</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1146872049489431</v>
       </c>
       <c r="M18">
-        <v>1.333733951545071</v>
+        <v>0.05947301967830754</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.3538889562720229</v>
+        <v>1.367737894439017</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.268591940516629</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.3582363723128239</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.084562587184251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.132216699148074</v>
+        <v>1.118602577751233</v>
       </c>
       <c r="C19">
-        <v>0.2286754057289784</v>
+        <v>0.258779535658789</v>
       </c>
       <c r="D19">
-        <v>0.1117785668637623</v>
+        <v>0.1175111912616273</v>
       </c>
       <c r="E19">
-        <v>0.1873105295583457</v>
+        <v>0.1898466978223894</v>
       </c>
       <c r="F19">
-        <v>0.5131171482869661</v>
+        <v>0.4515171742995818</v>
       </c>
       <c r="G19">
-        <v>0.0008062485169650239</v>
+        <v>0.003168096593294756</v>
       </c>
       <c r="H19">
-        <v>0.02629502000878858</v>
+        <v>0.02645860251944043</v>
       </c>
       <c r="I19">
-        <v>0.001538330308333613</v>
+        <v>0.002113177399683863</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.2943923826958681</v>
+        <v>0.2460049429924069</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1241370207716059</v>
       </c>
       <c r="M19">
-        <v>1.280834282828636</v>
+        <v>0.06889323180788054</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.5078383203021204</v>
+        <v>1.318420758245878</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.454264065174058</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.5140727504501683</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.243468030894959</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.105536210428596</v>
+        <v>1.086404857969995</v>
       </c>
       <c r="C20">
-        <v>0.2355860400717233</v>
+        <v>0.2722486424504638</v>
       </c>
       <c r="D20">
-        <v>0.1000872898759297</v>
+        <v>0.1084284042291515</v>
       </c>
       <c r="E20">
-        <v>0.4877452257652521</v>
+        <v>0.4884847869588924</v>
       </c>
       <c r="F20">
-        <v>0.6223232361007902</v>
+        <v>0.5343771887420274</v>
       </c>
       <c r="G20">
-        <v>0.0008043398801866492</v>
+        <v>0.004498941218234798</v>
       </c>
       <c r="H20">
-        <v>0.001287382676699256</v>
+        <v>0.001643257242311957</v>
       </c>
       <c r="I20">
-        <v>0.001726229842806681</v>
+        <v>0.002443871916433693</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3501799233889251</v>
+        <v>0.2826374859086549</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1362003759038473</v>
       </c>
       <c r="M20">
-        <v>1.26688163511588</v>
+        <v>0.08498948297381048</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.8194324087361409</v>
+        <v>1.308201553192305</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.783694738973082</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.8287837034687584</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.484701234320937</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.236451608770665</v>
+        <v>1.220421665580943</v>
       </c>
       <c r="C21">
-        <v>0.2613196312024684</v>
+        <v>0.2876689056882498</v>
       </c>
       <c r="D21">
-        <v>0.1086494766101325</v>
+        <v>0.1310401721379719</v>
       </c>
       <c r="E21">
-        <v>0.5765207873291729</v>
+        <v>0.5759323124080638</v>
       </c>
       <c r="F21">
-        <v>0.6718928442107526</v>
+        <v>0.5033482958707083</v>
       </c>
       <c r="G21">
-        <v>0.0008007942006794254</v>
+        <v>0.06578263615913471</v>
       </c>
       <c r="H21">
-        <v>0.002683920590520694</v>
+        <v>0.002965861173158002</v>
       </c>
       <c r="I21">
-        <v>0.00236584954721053</v>
+        <v>0.003118239081811858</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.3588190864974052</v>
+        <v>0.2525399082572548</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1213221386878018</v>
       </c>
       <c r="M21">
-        <v>1.414905190731332</v>
+        <v>0.07943746856642164</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.9488378305309624</v>
+        <v>1.444653832224134</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.885219874906909</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.9559313892040748</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.338063827820235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.32644348214356</v>
+        <v>1.313532241302653</v>
       </c>
       <c r="C22">
-        <v>0.2767453144251846</v>
+        <v>0.29498828719953</v>
       </c>
       <c r="D22">
-        <v>0.1146119069453846</v>
+        <v>0.1476255562334075</v>
       </c>
       <c r="E22">
-        <v>0.6177144062315705</v>
+        <v>0.6164965425989095</v>
       </c>
       <c r="F22">
-        <v>0.7024066822925619</v>
+        <v>0.4784532286683145</v>
       </c>
       <c r="G22">
-        <v>0.000798554908085105</v>
+        <v>0.1547930763418535</v>
       </c>
       <c r="H22">
-        <v>0.003858657940129295</v>
+        <v>0.004023117585297276</v>
       </c>
       <c r="I22">
-        <v>0.002733856217346009</v>
+        <v>0.003331615218290729</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.3636979489423524</v>
+        <v>0.2319205652674086</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.11216395249299</v>
       </c>
       <c r="M22">
-        <v>1.51330693044622</v>
+        <v>0.07497226082077191</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.01819577903391</v>
+        <v>1.534209748002638</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.945271598514438</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.023328467273167</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.231011074733502</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.279663793929643</v>
+        <v>1.263779870160903</v>
       </c>
       <c r="C23">
-        <v>0.2669612484263411</v>
+        <v>0.291412299626856</v>
       </c>
       <c r="D23">
-        <v>0.1111330881827826</v>
+        <v>0.1369456323113383</v>
       </c>
       <c r="E23">
-        <v>0.595920216762778</v>
+        <v>0.594912948822639</v>
       </c>
       <c r="F23">
-        <v>0.6883282129607267</v>
+        <v>0.5010549656885388</v>
       </c>
       <c r="G23">
-        <v>0.0007997316960065593</v>
+        <v>0.08893816779426089</v>
       </c>
       <c r="H23">
-        <v>0.003211001121680823</v>
+        <v>0.003453075575733044</v>
       </c>
       <c r="I23">
-        <v>0.002223797562490581</v>
+        <v>0.002864771828727797</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.3628078563563832</v>
+        <v>0.2473901133690681</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1184030708458135</v>
       </c>
       <c r="M23">
-        <v>1.459480237888471</v>
+        <v>0.07932995204063786</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.9808579932398089</v>
+        <v>1.486910994864303</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.920402684203879</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.9874582788571615</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.316195095778909</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.100388930363977</v>
+        <v>1.080835862895583</v>
       </c>
       <c r="C24">
-        <v>0.2327752092716651</v>
+        <v>0.2697790548404271</v>
       </c>
       <c r="D24">
-        <v>0.0984583893937554</v>
+        <v>0.1066625631077969</v>
       </c>
       <c r="E24">
-        <v>0.5133060095757642</v>
+        <v>0.5139278369830222</v>
       </c>
       <c r="F24">
-        <v>0.6327135863988858</v>
+        <v>0.5439197764859856</v>
       </c>
       <c r="G24">
-        <v>0.0008043015581880444</v>
+        <v>0.004293795489901164</v>
       </c>
       <c r="H24">
-        <v>0.001262228040744384</v>
+        <v>0.001630746735858724</v>
       </c>
       <c r="I24">
-        <v>0.001248936281111668</v>
+        <v>0.001875465768032214</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.357223466136066</v>
+        <v>0.2884108110213504</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1383663180690675</v>
       </c>
       <c r="M24">
-        <v>1.258139383482018</v>
+        <v>0.08715488135693406</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.8403954174891268</v>
+        <v>1.299878674214426</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.818188514358241</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.850020862763067</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.51556801986888</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9067553221514686</v>
+        <v>0.8958355599247909</v>
       </c>
       <c r="C25">
-        <v>0.1965038158564454</v>
+        <v>0.2249937250341389</v>
       </c>
       <c r="D25">
-        <v>0.08479419489179207</v>
+        <v>0.089065080580923</v>
       </c>
       <c r="E25">
-        <v>0.4245934940263112</v>
+        <v>0.4277045149843843</v>
       </c>
       <c r="F25">
-        <v>0.5754790388969724</v>
+        <v>0.5036412629891913</v>
       </c>
       <c r="G25">
-        <v>0.0008094320437223606</v>
+        <v>0.005172735353646374</v>
       </c>
       <c r="H25">
-        <v>0.0001380331063327578</v>
+        <v>0.0003404536082007859</v>
       </c>
       <c r="I25">
-        <v>0.001185292805098825</v>
+        <v>0.001320812900162949</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3524696170106658</v>
+        <v>0.2924963704842902</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.147238011015137</v>
       </c>
       <c r="M25">
-        <v>1.041515988047365</v>
+        <v>0.07986859615447806</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.6896257000160162</v>
+        <v>1.078481908032444</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.715770967010116</v>
+        <v>0.6978187196000931</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.461786828265119</v>
       </c>
     </row>
   </sheetData>
